--- a/biology/Médecine/Pál_Adámi/Pál_Adámi.xlsx
+++ b/biology/Médecine/Pál_Adámi/Pál_Adámi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A1l_Ad%C3%A1mi</t>
+          <t>Pál_Adámi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pál Adámi ou Paul Adámi (en hongrois : Adámi Pál, en slovaque Pavol Adami), né à Bellus le 9 juillet 1739 et mort à Vienne le 21 septembre 1795, est un scientifique, médecin, zoologiste et vétérinaire hongrois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A1l_Ad%C3%A1mi</t>
+          <t>Pál_Adámi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur en médecine en 1766, il est nommé vétérinaire royal en Croatie lors de la peste bovine qui sévit alors en Styrie. Il est professeur à la faculté vétérinaire de l'Université de Vienne de 1775 à sa mort.
 Considéré comme l'un des pionniers de la médecine vétérinaire, il a été l'un des premiers à répertorier les maladies infectieuses chez les animaux.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A1l_Ad%C3%A1mi</t>
+          <t>Pál_Adámi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hydrographia comitatus Trencsinensis, Vienne, 1766 ; réédité sous le titre Specimen hydrographiae Hungaricae, Vienne, 1780
 Beiträge zur Geschichte der Viehseuchen in den k. k. Erbländern, Vienne, 1781.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P%C3%A1l_Ad%C3%A1mi</t>
+          <t>Pál_Adámi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">József Szinnyei: Magyar írók élete és munkái I. (Aachs–Bzenszki). Budapest: Hornyánszky. 1891 [1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">József Szinnyei: Magyar írók élete és munkái I. (Aachs–Bzenszki). Budapest: Hornyánszky. 1891 
 Malý Slovenský Biografický Slovník ("Petit dictionnaire biographique slovaque"). Hlavný redaktor Vladimír Mináč. Martin, Matica slovenská, 1982.
  Portail de la médecine   Portail de la médecine vétérinaire   Portail de la Hongrie   Portail de la Slovaquie   Portail de l’Empire autrichien                 </t>
         </is>
